--- a/test_datas/test_datas.xlsx
+++ b/test_datas/test_datas.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login_test" sheetId="1" r:id="rId1"/>
     <sheet name="qa_test" sheetId="2" r:id="rId2"/>
     <sheet name="main_test" sheetId="3" r:id="rId3"/>
+    <sheet name="product_test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>测试方法名称</t>
   </si>
@@ -187,6 +188,24 @@
   </si>
   <si>
     <t>text=1</t>
+  </si>
+  <si>
+    <t>test_product</t>
+  </si>
+  <si>
+    <t>验证成功添加产品</t>
+  </si>
+  <si>
+    <t>ProductCase</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>name=sb</t>
+  </si>
+  <si>
+    <t>id=9900</t>
   </si>
 </sst>
 </file>
@@ -194,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,15 +243,76 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,26 +326,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,75 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,12 +380,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,19 +422,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,145 +518,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,26 +588,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +622,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,17 +652,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,85 +676,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,58 +763,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1131,7 +1150,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1308,7 +1327,7 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1514,4 +1533,82 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.8928571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.8214285714286" customWidth="1"/>
+    <col min="3" max="3" width="19.3392857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.9285714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.9196428571429" customWidth="1"/>
+    <col min="6" max="6" width="22.1696428571429" customWidth="1"/>
+    <col min="7" max="7" width="21.2767857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>